--- a/medicine/Psychotrope/Vallée_d'Aoste_Blanc_de_Morgex_et_de_La_Salle/Vallée_d'Aoste_Blanc_de_Morgex_et_de_La_Salle.xlsx
+++ b/medicine/Psychotrope/Vallée_d'Aoste_Blanc_de_Morgex_et_de_La_Salle/Vallée_d'Aoste_Blanc_de_Morgex_et_de_La_Salle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vall%C3%A9e_d%27Aoste_Blanc_de_Morgex_et_de_La_Salle</t>
+          <t>Vallée_d'Aoste_Blanc_de_Morgex_et_de_La_Salle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Vallée d'Aoste Blanc de Morgex et de La Salle est un vin blanc italien de la région autonome Vallée d'Aoste doté d'une appellation DOC depuis le 30 juillet 1985. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent en Vallée d'Aoste dans les communes de Morgex et de La Salle.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vall%C3%A9e_d%27Aoste_Blanc_de_Morgex_et_de_La_Salle</t>
+          <t>Vallée_d'Aoste_Blanc_de_Morgex_et_de_La_Salle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : blanc paille clair avec des reflets verdâtres
 odeur : fin, délicat, avec des arômes d'herbes de montagne et de foin
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vall%C3%A9e_d%27Aoste_Blanc_de_Morgex_et_de_La_Salle</t>
+          <t>Vallée_d'Aoste_Blanc_de_Morgex_et_de_La_Salle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vall%C3%A9e_d%27Aoste_Blanc_de_Morgex_et_de_La_Salle</t>
+          <t>Vallée_d'Aoste_Blanc_de_Morgex_et_de_La_Salle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -581,7 +599,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vall%C3%A9e_d%27Aoste_Blanc_de_Morgex_et_de_La_Salle</t>
+          <t>Vallée_d'Aoste_Blanc_de_Morgex_et_de_La_Salle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -599,7 +617,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  pas de données disponibles </t>
